--- a/Assets/Tables/table_monster.xlsx
+++ b/Assets/Tables/table_monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjKing\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC17737-C3F2-4E91-A8CD-A62C61613390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131E21C-0FD0-4141-8107-67225268D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>dungeon_bat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>monster_behaviour_tree</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -137,27 +133,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>dungeon_beatle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>地宫洞穴人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_caveman</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_springtail_rider</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_springtail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dungeon_bat_rider</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -220,27 +196,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>跳虫骑手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝙蝠骑手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自爆甲虫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳虫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>caveman</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -701,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB22D4E-177C-4FB4-ACF4-6C3B8984BA30}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,23 +703,23 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -764,16 +732,16 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>3</v>
@@ -791,31 +759,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -823,11 +791,11 @@
         <v>201101</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"enemy",$A4)</f>
-        <v>enemy_201101</v>
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A4)</f>
+        <v>monster_201101</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>7</v>
@@ -845,15 +813,15 @@
         <v>1</v>
       </c>
       <c r="I4" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A4,$J4)</f>
-        <v>monster_201101_dungeon_bat</v>
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J4)</f>
+        <v>mv_bat</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f t="shared" ref="K4:K9" si="0">_xlfn.TEXTJOIN("_",1,"BT",$J4)</f>
-        <v>BT_dungeon_bat</v>
+        <f t="shared" ref="K4:K5" si="0">_xlfn.TEXTJOIN("_",1,"BT",$J4)</f>
+        <v>BT_bat</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -861,20 +829,20 @@
         <v>201102</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f t="shared" ref="B5:B9" si="1">_xlfn.TEXTJOIN("_",1,"enemy",$A5)</f>
-        <v>enemy_201102</v>
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A5)</f>
+        <v>monster_201102</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5" s="12">
         <v>10</v>
       </c>
       <c r="F5" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G5" s="12">
         <v>3</v>
@@ -883,168 +851,24 @@
         <v>1</v>
       </c>
       <c r="I5" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A5,$J5)</f>
-        <v>monster_201102_dungeon_beatle</v>
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J5)</f>
+        <v>mv_caveman</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>BT_dungeon_beatle</v>
+        <v>BT_caveman</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>201103</v>
-      </c>
-      <c r="B6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>enemy_201103</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>3</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A6,$J6)</f>
-        <v>monster_201103_dungeon_springtail</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>BT_dungeon_springtail</v>
-      </c>
+      <c r="I6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>201104</v>
-      </c>
-      <c r="B7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>enemy_201104</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A7,$J7)</f>
-        <v>monster_201104_dungeon_caveman</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>BT_dungeon_caveman</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>201105</v>
-      </c>
-      <c r="B8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>enemy_201105</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A8,$J8)</f>
-        <v>monster_201105_dungeon_springtail_rider</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>BT_dungeon_springtail_rider</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>201106</v>
-      </c>
-      <c r="B9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>enemy_201106</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="12">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>3</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="str">
-        <f>_xlfn.TEXTJOIN("_",1,"monster",$A9,$J9)</f>
-        <v>monster_201106_dungeon_bat_rider</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>BT_dungeon_bat_rider</v>
-      </c>
+      <c r="I7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Assets/Tables/table_monster.xlsx
+++ b/Assets/Tables/table_monster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjKing\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131E21C-0FD0-4141-8107-67225268D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DEB4A-A2FE-420B-8206-BB2D32149EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>地宫蝙蝠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>monster_view</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -130,10 +126,6 @@
   </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地宫洞穴人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -209,6 +201,54 @@
   </si>
   <si>
     <t>caveman</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹小子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠骑士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠕虫骑士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木制拒马</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocker</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomber</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat_rider</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>worm_rider</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrier</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -669,13 +709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB22D4E-177C-4FB4-ACF4-6C3B8984BA30}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,23 +743,23 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -732,16 +772,16 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>3</v>
@@ -759,31 +799,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -795,10 +835,10 @@
         <v>monster_201101</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E4" s="12">
         <v>10</v>
@@ -817,10 +857,10 @@
         <v>mv_bat</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f t="shared" ref="K4:K5" si="0">_xlfn.TEXTJOIN("_",1,"BT",$J4)</f>
+        <f t="shared" ref="K4:K10" si="0">_xlfn.TEXTJOIN("_",1,"BT",$J4)</f>
         <v>BT_bat</v>
       </c>
     </row>
@@ -833,10 +873,10 @@
         <v>monster_201102</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12">
         <v>10</v>
@@ -855,7 +895,7 @@
         <v>mv_caveman</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -863,12 +903,194 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="12">
+        <v>201103</v>
+      </c>
+      <c r="B6" s="12" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A6)</f>
+        <v>monster_201103</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J6)</f>
+        <v>mv_rocker</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BT_rocker</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="12">
+        <v>201104</v>
+      </c>
+      <c r="B7" s="12" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A7)</f>
+        <v>monster_201104</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J7)</f>
+        <v>mv_bomber</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BT_bomber</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>201105</v>
+      </c>
+      <c r="B8" s="12" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A8)</f>
+        <v>monster_201105</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J8)</f>
+        <v>mv_bat_rider</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BT_bat_rider</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>201106</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A9)</f>
+        <v>monster_201106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J9)</f>
+        <v>mv_worm_rider</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BT_worm_rider</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>201107</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"monster",$A10)</f>
+        <v>monster_201107</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <f>_xlfn.TEXTJOIN("_",1,"mv",$J10)</f>
+        <v>mv_barrier</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BT_barrier</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
